--- a/pred_ohlcv/54_21/2019-11-01 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 OGO ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>-4607293.386299999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4601293.386299999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4601293.386299999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4597304.3346</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4592204.3346</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4593804.3346</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4583593.3346</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4506236.9671</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4506236.9671</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4500206.9671</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4445489.864676518</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4450028.245176518</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4432028.245176518</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4329023.030676519</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4330745.193576518</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4321565.987276519</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4306194.512976519</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4317252.652976518</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4306242.652976518</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4326006.585476519</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4326006.585476519</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4335721.442976519</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4363707.065476518</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4317022.065476518</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4327032.065476518</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4316819.526076518</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4366819.526076518</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4236779.526076518</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4235530.289376518</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4244615.289376518</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4225947.453876518</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4233049.880476518</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4295935.109676518</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4288435.109676518</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4288435.109676518</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4317212.519176518</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4467971.134776518</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4467971.134776518</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4475377.617276518</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4505550.514476517</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 OGO ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>-4592204.3346</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4591804.3346</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4516236.9671</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4506236.9671</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4500206.9671</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4482206.9671</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4445489.864676518</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4450028.245176518</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4432028.245176518</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4384028.234776518</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4411996.691576519</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4397381.093576519</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4403202.663276519</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4407202.663276519</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4408004.663276519</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4430852.120276519</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4428933.122176519</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4422320.122176519</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4421472.665176518</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4428952.665176518</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4442724.738376519</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4337733.823576518</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4320771.807676518</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4293902.018876518</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4311513.030676519</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4329023.030676519</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4321003.030676519</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4330745.193576518</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4325565.987276519</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4317252.652976518</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4306242.652976518</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4326006.585476519</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4366819.526076518</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4236779.526076518</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4274693.626076518</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4235530.289376518</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4244615.289376518</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4250416.564276517</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4225947.453876518</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4242715.591176517</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4233049.880476518</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4295935.109676518</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4288435.109676518</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4317212.519176518</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4483885.617276518</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4508885.617276518</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4505550.514476517</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
